--- a/analysis/mass_analysis_bilbo/BC03.xlsx
+++ b/analysis/mass_analysis_bilbo/BC03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D290"/>
+  <dimension ref="A1:D206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,13 +474,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.008820624416445984</v>
+        <v>0.00981793174473127</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006664473804725382</v>
+        <v>0.005652068255268729</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01548509822117137</v>
+        <v>0.01547</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02285124561381918</v>
+        <v>0.02583474877181684</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01085147042545493</v>
+        <v>0.007835251228183154</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03370271603927411</v>
+        <v>0.03367</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03600482581290305</v>
+        <v>0.04266431241635717</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01591655573821176</v>
+        <v>0.009205687583642826</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05192138155111481</v>
+        <v>0.05187</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05178082615949993</v>
+        <v>0.0619800049130307</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01829505964362023</v>
+        <v>0.008089995086969295</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07007588580312016</v>
+        <v>0.07006999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06292416087980923</v>
+        <v>0.07507742136419296</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02536883768682724</v>
+        <v>0.01319257863580704</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08829299856663647</v>
+        <v>0.08827</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>0.07443026175464457</v>
+        <v>0.08916199888850443</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03208037356260829</v>
+        <v>0.01730800111149557</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1065106353172529</v>
+        <v>0.10647</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>0.09128429396739737</v>
+        <v>0.1104897657059758</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03343820731772681</v>
+        <v>0.01418023429402417</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1247225012851242</v>
+        <v>0.12467</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1008261072504579</v>
+        <v>0.1228801531244623</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04204979613853359</v>
+        <v>0.0199898468755377</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1428759033889915</v>
+        <v>0.14287</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>45</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1100275225064185</v>
+        <v>0.1348275646718377</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05107307424463006</v>
+        <v>0.02624243532816234</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1611005967510485</v>
+        <v>0.16107</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1174557690907527</v>
+        <v>0.1448509376546909</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06185836568525079</v>
+        <v>0.03441906234530909</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1793141347760035</v>
+        <v>0.17927</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>55</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1265875574612258</v>
+        <v>0.155488783717843</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07093840678415669</v>
+        <v>0.04198121628215701</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1975259642453825</v>
+        <v>0.19747</v>
       </c>
     </row>
     <row r="14">
@@ -628,13 +628,13 @@
         <v>60</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1348727092241036</v>
+        <v>0.1656888676278817</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08080719217481294</v>
+        <v>0.04998113237211829</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2156799013989165</v>
+        <v>0.21567</v>
       </c>
     </row>
     <row r="15">
@@ -642,13 +642,13 @@
         <v>65</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1483444551982442</v>
+        <v>0.1817719676301235</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08556363947153564</v>
+        <v>0.05209803236987645</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2339080946697798</v>
+        <v>0.23387</v>
       </c>
     </row>
     <row r="16">
@@ -656,13 +656,13 @@
         <v>70</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1498396830957593</v>
+        <v>0.1832793582518116</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09306531766469309</v>
+        <v>0.05774930841485504</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2429050007604524</v>
+        <v>0.2410286666666667</v>
       </c>
     </row>
     <row r="17">
@@ -670,13 +670,13 @@
         <v>75</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1581178175719969</v>
+        <v>0.1946218539678089</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1011832482766006</v>
+        <v>0.06278681269885777</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2593010658485976</v>
+        <v>0.2574086666666667</v>
       </c>
     </row>
     <row r="18">
@@ -684,13 +684,13 @@
         <v>80</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1544080806273849</v>
+        <v>0.1902802894767506</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1231204819134357</v>
+        <v>0.08532837718991604</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2775285625408205</v>
+        <v>0.2756086666666667</v>
       </c>
     </row>
     <row r="19">
@@ -698,13 +698,13 @@
         <v>85</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1556183292955229</v>
+        <v>0.1914093603090696</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1400742691293523</v>
+        <v>0.1023993063575971</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2956925984248752</v>
+        <v>0.2938086666666667</v>
       </c>
     </row>
     <row r="20">
@@ -712,13 +712,13 @@
         <v>90</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1565851347124674</v>
+        <v>0.1920208283631765</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1573242722105082</v>
+        <v>0.1199878383034902</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3139094069229756</v>
+        <v>0.3120086666666667</v>
       </c>
     </row>
     <row r="21">
@@ -726,13 +726,13 @@
         <v>95</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1621940693085593</v>
+        <v>0.1998525220826537</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1699280814399956</v>
+        <v>0.130356144584013</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3321221507485549</v>
+        <v>0.3302086666666667</v>
       </c>
     </row>
     <row r="22">
@@ -740,13 +740,13 @@
         <v>100</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1726143906752967</v>
+        <v>0.2141313174285481</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1777283794633222</v>
+        <v>0.1342773492381186</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3503427701386189</v>
+        <v>0.3484086666666667</v>
       </c>
     </row>
     <row r="23">
@@ -754,13 +754,13 @@
         <v>105</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1741636189875135</v>
+        <v>0.2158671273494376</v>
       </c>
       <c r="C23" t="n">
-        <v>0.194334138611503</v>
+        <v>0.1507415393172291</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3684977575990165</v>
+        <v>0.3666086666666667</v>
       </c>
     </row>
     <row r="24">
@@ -768,13 +768,13 @@
         <v>110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1688678761201094</v>
+        <v>0.2104935805528322</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2178500023940853</v>
+        <v>0.1743150861138345</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3867178785141947</v>
+        <v>0.3848086666666667</v>
       </c>
     </row>
     <row r="25">
@@ -782,13 +782,13 @@
         <v>115</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1926293942272325</v>
+        <v>0.2398560537189748</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2123073537022238</v>
+        <v>0.1631526129476918</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4049367479294563</v>
+        <v>0.4030086666666667</v>
       </c>
     </row>
     <row r="26">
@@ -796,13 +796,13 @@
         <v>120</v>
       </c>
       <c r="B26" t="n">
-        <v>0.2066583865395351</v>
+        <v>0.2591490694948252</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2164343389631697</v>
+        <v>0.1620595971718414</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4230927255027048</v>
+        <v>0.4212086666666667</v>
       </c>
     </row>
     <row r="27">
@@ -810,13 +810,13 @@
         <v>125</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2186267750622097</v>
+        <v>0.273868971139771</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2226856655188782</v>
+        <v>0.1655396955268957</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4413124405810879</v>
+        <v>0.4394086666666667</v>
       </c>
     </row>
     <row r="28">
@@ -824,13 +824,13 @@
         <v>130</v>
       </c>
       <c r="B28" t="n">
-        <v>0.2248718359551712</v>
+        <v>0.2818841505641504</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2346526982890135</v>
+        <v>0.1757245161025162</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4595245342441847</v>
+        <v>0.4576086666666667</v>
       </c>
     </row>
     <row r="29">
@@ -838,13 +838,13 @@
         <v>135</v>
       </c>
       <c r="B29" t="n">
-        <v>0.2416500233178251</v>
+        <v>0.3016973953099648</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2360949671692271</v>
+        <v>0.1741112713567019</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4777449904870523</v>
+        <v>0.4758086666666667</v>
       </c>
     </row>
     <row r="30">
@@ -852,13 +852,13 @@
         <v>140</v>
       </c>
       <c r="B30" t="n">
-        <v>0.2491279376334995</v>
+        <v>0.3106675513145042</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2467766412420702</v>
+        <v>0.1833411153521625</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4959045788755697</v>
+        <v>0.4940086666666667</v>
       </c>
     </row>
     <row r="31">
@@ -866,13 +866,13 @@
         <v>145</v>
       </c>
       <c r="B31" t="n">
-        <v>0.26697534669853</v>
+        <v>0.3335940325083464</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2465528778029592</v>
+        <v>0.1780383008249868</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5135282245014892</v>
+        <v>0.5116323333333332</v>
       </c>
     </row>
     <row r="32">
@@ -880,13 +880,13 @@
         <v>150</v>
       </c>
       <c r="B32" t="n">
-        <v>0.2633306159271954</v>
+        <v>0.3289059962656098</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2539075116670989</v>
+        <v>0.1864573370677234</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="33">
@@ -894,13 +894,13 @@
         <v>155</v>
       </c>
       <c r="B33" t="n">
-        <v>0.2590091872891676</v>
+        <v>0.3234527673678252</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2582289403051267</v>
+        <v>0.1919105659655081</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="34">
@@ -908,13 +908,13 @@
         <v>160</v>
       </c>
       <c r="B34" t="n">
-        <v>0.2614174546477419</v>
+        <v>0.3265830911541224</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2558206729465524</v>
+        <v>0.1887802421792109</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="35">
@@ -922,13 +922,13 @@
         <v>165</v>
       </c>
       <c r="B35" t="n">
-        <v>0.2581469778387881</v>
+        <v>0.3224943486509596</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2590911497555062</v>
+        <v>0.1928689846823737</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="36">
@@ -936,13 +936,13 @@
         <v>170</v>
       </c>
       <c r="B36" t="n">
-        <v>0.2468747884468631</v>
+        <v>0.308193695579556</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2703633391474313</v>
+        <v>0.2071696377537773</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="37">
@@ -950,13 +950,13 @@
         <v>175</v>
       </c>
       <c r="B37" t="n">
-        <v>0.2511995583629547</v>
+        <v>0.3138883092913049</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2660385692313397</v>
+        <v>0.2014750240420284</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="38">
@@ -964,13 +964,13 @@
         <v>180</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2502603049300172</v>
+        <v>0.312852078426058</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2669778226642771</v>
+        <v>0.2025112549072753</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="39">
@@ -978,13 +978,13 @@
         <v>185</v>
       </c>
       <c r="B39" t="n">
-        <v>0.2484883184081216</v>
+        <v>0.3109521106039199</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2687498091861728</v>
+        <v>0.2044112227294134</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="40">
@@ -992,13 +992,13 @@
         <v>190</v>
       </c>
       <c r="B40" t="n">
-        <v>0.2416315805699737</v>
+        <v>0.3020869697625309</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2756065470243206</v>
+        <v>0.2132763635708024</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="41">
@@ -1006,13 +1006,13 @@
         <v>195</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2357148929421705</v>
+        <v>0.2948835550951701</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2815232346521238</v>
+        <v>0.2204797782381632</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="42">
@@ -1020,13 +1020,13 @@
         <v>200</v>
       </c>
       <c r="B42" t="n">
-        <v>0.2329131549038251</v>
+        <v>0.2915301695371469</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2843249726904692</v>
+        <v>0.2238331637961864</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="43">
@@ -1034,13 +1034,13 @@
         <v>205</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2319422876226651</v>
+        <v>0.2906587008857074</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2852958399716293</v>
+        <v>0.2247046324476259</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="44">
@@ -1048,13 +1048,13 @@
         <v>210</v>
       </c>
       <c r="B44" t="n">
-        <v>0.2290486144019761</v>
+        <v>0.2870411634352665</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2881895131923182</v>
+        <v>0.2283221698980668</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="45">
@@ -1062,13 +1062,13 @@
         <v>215</v>
       </c>
       <c r="B45" t="n">
-        <v>0.2232596862930864</v>
+        <v>0.2799672210558962</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2939784413012079</v>
+        <v>0.2353961122774371</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="46">
@@ -1076,13 +1076,13 @@
         <v>220</v>
       </c>
       <c r="B46" t="n">
-        <v>0.2226756735097684</v>
+        <v>0.2792915234281005</v>
       </c>
       <c r="C46" t="n">
-        <v>0.294562454084526</v>
+        <v>0.2360718099052328</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="47">
@@ -1090,13 +1090,13 @@
         <v>225</v>
       </c>
       <c r="B47" t="n">
-        <v>0.2197221977613693</v>
+        <v>0.2759287138004452</v>
       </c>
       <c r="C47" t="n">
-        <v>0.297515929832925</v>
+        <v>0.2394346195328881</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="48">
@@ -1104,13 +1104,13 @@
         <v>230</v>
       </c>
       <c r="B48" t="n">
-        <v>0.2128124762099062</v>
+        <v>0.267232250939588</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3044256513843882</v>
+        <v>0.2481310823937453</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="49">
@@ -1118,13 +1118,13 @@
         <v>235</v>
       </c>
       <c r="B49" t="n">
-        <v>0.208735264810078</v>
+        <v>0.2627594730722552</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3085028627842163</v>
+        <v>0.2526038602610781</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="50">
@@ -1132,13 +1132,13 @@
         <v>240</v>
       </c>
       <c r="B50" t="n">
-        <v>0.2047249884369273</v>
+        <v>0.2576720614443834</v>
       </c>
       <c r="C50" t="n">
-        <v>0.312513139157367</v>
+        <v>0.2576912718889499</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="51">
@@ -1146,13 +1146,13 @@
         <v>245</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1979758637997674</v>
+        <v>0.2493424751336109</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3192622637945269</v>
+        <v>0.2660208581997223</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="52">
@@ -1160,13 +1160,13 @@
         <v>250</v>
       </c>
       <c r="B52" t="n">
-        <v>0.188298537366205</v>
+        <v>0.2373203458820364</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3289395902280893</v>
+        <v>0.2780429874512969</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="53">
@@ -1174,13 +1174,13 @@
         <v>255</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1896071247363743</v>
+        <v>0.2390695508594761</v>
       </c>
       <c r="C53" t="n">
-        <v>0.32763100285792</v>
+        <v>0.2762937824738572</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="54">
@@ -1188,13 +1188,13 @@
         <v>260</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1836073214594461</v>
+        <v>0.231646379295311</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3336308061348482</v>
+        <v>0.2837169540380223</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="55">
@@ -1202,13 +1202,13 @@
         <v>265</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1753949896755074</v>
+        <v>0.2210614889169484</v>
       </c>
       <c r="C55" t="n">
-        <v>0.341843137918787</v>
+        <v>0.2943018444163849</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="56">
@@ -1216,13 +1216,13 @@
         <v>270</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1728667278494999</v>
+        <v>0.2179912356317359</v>
       </c>
       <c r="C56" t="n">
-        <v>0.3443713997447945</v>
+        <v>0.2973720977015973</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="57">
@@ -1230,13 +1230,13 @@
         <v>275</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1708287549145057</v>
+        <v>0.215471084611251</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3464093726797886</v>
+        <v>0.2998922487220823</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="58">
@@ -1244,13 +1244,13 @@
         <v>280</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1671289815674986</v>
+        <v>0.2108686636822741</v>
       </c>
       <c r="C58" t="n">
-        <v>0.3501091460267957</v>
+        <v>0.3044946696510592</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="59">
@@ -1258,13 +1258,13 @@
         <v>285</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1619267081354359</v>
+        <v>0.2045195078631884</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3553114194588585</v>
+        <v>0.3108438254701449</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="60">
@@ -1272,13 +1272,13 @@
         <v>290</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1578127140805459</v>
+        <v>0.1995669666877733</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3594254135137484</v>
+        <v>0.31579636664556</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="61">
@@ -1286,13 +1286,13 @@
         <v>295</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1518204032149252</v>
+        <v>0.1922704366980061</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3654177243793691</v>
+        <v>0.3230928966353271</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="62">
@@ -1300,13 +1300,13 @@
         <v>300</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1514752766148842</v>
+        <v>0.1917175982279343</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3657628509794101</v>
+        <v>0.323645735105399</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="63">
@@ -1314,13 +1314,13 @@
         <v>305</v>
       </c>
       <c r="B63" t="n">
-        <v>0.144117259903712</v>
+        <v>0.1825852156008072</v>
       </c>
       <c r="C63" t="n">
-        <v>0.3731208676905823</v>
+        <v>0.3327781177325261</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="64">
@@ -1328,13 +1328,13 @@
         <v>310</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1424078275755047</v>
+        <v>0.1806736496607345</v>
       </c>
       <c r="C64" t="n">
-        <v>0.3748303000187896</v>
+        <v>0.3346896836725988</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="65">
@@ -1342,13 +1342,13 @@
         <v>315</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1376646183798694</v>
+        <v>0.1748929066291197</v>
       </c>
       <c r="C65" t="n">
-        <v>0.3795735092144249</v>
+        <v>0.3404704267042136</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="66">
@@ -1356,13 +1356,13 @@
         <v>320</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1330258322000498</v>
+        <v>0.1692145816739149</v>
       </c>
       <c r="C66" t="n">
-        <v>0.3842122953942446</v>
+        <v>0.3461487516594184</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="67">
@@ -1370,13 +1370,13 @@
         <v>325</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1291417836090071</v>
+        <v>0.164506441691091</v>
       </c>
       <c r="C67" t="n">
-        <v>0.3880963439852872</v>
+        <v>0.3508568916422423</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="68">
@@ -1384,13 +1384,13 @@
         <v>330</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1277309917533008</v>
+        <v>0.1627951834406137</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3895071358409936</v>
+        <v>0.3525681498927196</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="69">
@@ -1398,13 +1398,13 @@
         <v>335</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1236507422450132</v>
+        <v>0.1578194268309447</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3935873853492811</v>
+        <v>0.3575439065023887</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="70">
@@ -1412,13 +1412,13 @@
         <v>340</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1210500977586174</v>
+        <v>0.1547698167499072</v>
       </c>
       <c r="C70" t="n">
-        <v>0.396188029835677</v>
+        <v>0.3605935165834261</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="71">
@@ -1426,13 +1426,13 @@
         <v>345</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1125639114616176</v>
+        <v>0.1440772486151804</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4046742161326768</v>
+        <v>0.3712860847181528</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="72">
@@ -1440,13 +1440,13 @@
         <v>350</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1109305551146853</v>
+        <v>0.1420878014280786</v>
       </c>
       <c r="C72" t="n">
-        <v>0.406307572479609</v>
+        <v>0.3732755319052548</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="73">
@@ -1454,13 +1454,13 @@
         <v>355</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1048886647378385</v>
+        <v>0.1346059813921217</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4123494628564559</v>
+        <v>0.3807573519412116</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="74">
@@ -1468,3037 +1468,1861 @@
         <v>360</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1047133926628393</v>
+        <v>0.1345485244769997</v>
       </c>
       <c r="C74" t="n">
-        <v>0.412524734931455</v>
+        <v>0.3808148088563336</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1001368499645646</v>
+        <v>0.1263270140030655</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4171012776297297</v>
+        <v>0.3890363193302677</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B76" t="n">
-        <v>0.09798338193456929</v>
+        <v>0.120314959369852</v>
       </c>
       <c r="C76" t="n">
-        <v>0.419254745659725</v>
+        <v>0.3950483739634814</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="B77" t="n">
-        <v>0.09557995839493616</v>
+        <v>0.1186229795543915</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4216581691993582</v>
+        <v>0.3967403537789418</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="B78" t="n">
-        <v>0.09330453256821639</v>
+        <v>0.1147510546249645</v>
       </c>
       <c r="C78" t="n">
-        <v>0.423933595026078</v>
+        <v>0.4006122787083688</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="B79" t="n">
-        <v>0.09299497016737289</v>
+        <v>0.1110919105914048</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4242431574269214</v>
+        <v>0.4042714227419285</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="B80" t="n">
-        <v>0.09195140909380535</v>
+        <v>0.1055682209443534</v>
       </c>
       <c r="C80" t="n">
-        <v>0.425286718500489</v>
+        <v>0.4097951123889799</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="B81" t="n">
-        <v>0.08988806546029006</v>
+        <v>0.09953766777393698</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4273500621340043</v>
+        <v>0.4158256655593963</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0889226144494194</v>
+        <v>0.0960841379834145</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4283155131448749</v>
+        <v>0.4192791953499188</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="B83" t="n">
-        <v>0.08769721860044417</v>
+        <v>0.09198329590851151</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4295409089938502</v>
+        <v>0.4233800374248218</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="B84" t="n">
-        <v>0.08605077551074752</v>
+        <v>0.08693111205455097</v>
       </c>
       <c r="C84" t="n">
-        <v>0.4311873520835468</v>
+        <v>0.4284322212787823</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>415</v>
+        <v>470</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0838950060789513</v>
+        <v>0.08430296366768721</v>
       </c>
       <c r="C85" t="n">
-        <v>0.433343121515343</v>
+        <v>0.4310603696656461</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="B86" t="n">
-        <v>0.08166427966882417</v>
+        <v>0.08267342532361185</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4355738479254702</v>
+        <v>0.4326899080097214</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>425</v>
+        <v>490</v>
       </c>
       <c r="B87" t="n">
-        <v>0.07877073706729804</v>
+        <v>0.07884172366701567</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4384673905269963</v>
+        <v>0.4365216096663176</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="B88" t="n">
-        <v>0.07702386235143988</v>
+        <v>0.07557602576453612</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4402142652428545</v>
+        <v>0.4397873075687971</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>435</v>
+        <v>510</v>
       </c>
       <c r="B89" t="n">
-        <v>0.07492323962137974</v>
+        <v>0.07035254484371234</v>
       </c>
       <c r="C89" t="n">
-        <v>0.4423148879729146</v>
+        <v>0.4450107884896209</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="B90" t="n">
-        <v>0.07431826619737984</v>
+        <v>0.06832021520637875</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4429198613969145</v>
+        <v>0.4470431181269545</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>445</v>
+        <v>530</v>
       </c>
       <c r="B91" t="n">
-        <v>0.07283437638986026</v>
+        <v>0.0656053237452791</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4444037512044341</v>
+        <v>0.4497580095880542</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="B92" t="n">
-        <v>0.07116934884718105</v>
+        <v>0.06371115153116014</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4460687787471133</v>
+        <v>0.4516521818021731</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>455</v>
+        <v>550</v>
       </c>
       <c r="B93" t="n">
-        <v>0.06983982692281825</v>
+        <v>0.06186889396485771</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4473983006714761</v>
+        <v>0.4534944393684756</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>460</v>
+        <v>560</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0672367207025531</v>
+        <v>0.05897227843991854</v>
       </c>
       <c r="C94" t="n">
-        <v>0.4500014068917412</v>
+        <v>0.4563910548934147</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>465</v>
+        <v>570</v>
       </c>
       <c r="B95" t="n">
-        <v>0.06682128629190934</v>
+        <v>0.05724155553495997</v>
       </c>
       <c r="C95" t="n">
-        <v>0.450416841302385</v>
+        <v>0.4581217777983733</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>470</v>
+        <v>580</v>
       </c>
       <c r="B96" t="n">
-        <v>0.06516030929143063</v>
+        <v>0.05591033569921416</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4520778183028637</v>
+        <v>0.4594529976341191</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>475</v>
+        <v>590</v>
       </c>
       <c r="B97" t="n">
-        <v>0.06447322017173844</v>
+        <v>0.05556648139362361</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4527649074225559</v>
+        <v>0.4597968519397096</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="B98" t="n">
-        <v>0.06392834892466893</v>
+        <v>0.0540436528425462</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4533097786696254</v>
+        <v>0.4613196804907871</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>485</v>
+        <v>610</v>
       </c>
       <c r="B99" t="n">
-        <v>0.06218939489671714</v>
+        <v>0.05291736447683456</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4550487326975772</v>
+        <v>0.4624459688564987</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>490</v>
+        <v>620</v>
       </c>
       <c r="B100" t="n">
-        <v>0.06090397991202875</v>
+        <v>0.05250403025263242</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4563341476822656</v>
+        <v>0.4628593030807009</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>495</v>
+        <v>630</v>
       </c>
       <c r="B101" t="n">
-        <v>0.05926147966693782</v>
+        <v>0.04915218321864557</v>
       </c>
       <c r="C101" t="n">
-        <v>0.4579766479273565</v>
+        <v>0.4662111501146877</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>500</v>
+        <v>640</v>
       </c>
       <c r="B102" t="n">
-        <v>0.05831346239730865</v>
+        <v>0.04805680842907908</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4589246651969857</v>
+        <v>0.4673065249042542</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>505</v>
+        <v>650</v>
       </c>
       <c r="B103" t="n">
-        <v>0.05576603680459721</v>
+        <v>0.04579874586213418</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4614720907896971</v>
+        <v>0.4695645874711991</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>510</v>
+        <v>660</v>
       </c>
       <c r="B104" t="n">
-        <v>0.05429444232482627</v>
+        <v>0.0437930125978704</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4629436852694681</v>
+        <v>0.4715703207354629</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>515</v>
+        <v>670</v>
       </c>
       <c r="B105" t="n">
-        <v>0.05298742552347781</v>
+        <v>0.04204916280190902</v>
       </c>
       <c r="C105" t="n">
-        <v>0.4642507020708165</v>
+        <v>0.4733141705314243</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>520</v>
+        <v>680</v>
       </c>
       <c r="B106" t="n">
-        <v>0.05272177714578573</v>
+        <v>0.0414480231669122</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4645163504485086</v>
+        <v>0.4739153101664211</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>525</v>
+        <v>690</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0520713498634381</v>
+        <v>0.04065401068929637</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4651667777308562</v>
+        <v>0.4747093226440369</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>530</v>
+        <v>700</v>
       </c>
       <c r="B108" t="n">
-        <v>0.05061904754280164</v>
+        <v>0.0385916006696564</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4666190800514927</v>
+        <v>0.4767717326636769</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>535</v>
+        <v>710</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0497146682988586</v>
+        <v>0.03794198143003851</v>
       </c>
       <c r="C109" t="n">
-        <v>0.4675234592954357</v>
+        <v>0.4774213519032948</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>540</v>
+        <v>720</v>
       </c>
       <c r="B110" t="n">
-        <v>0.04912761825766916</v>
+        <v>0.03688022921418144</v>
       </c>
       <c r="C110" t="n">
-        <v>0.4681105093366252</v>
+        <v>0.4784831041191518</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>545</v>
+        <v>730</v>
       </c>
       <c r="B111" t="n">
-        <v>0.04896564624948296</v>
+        <v>0.03583913342085366</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4682724813448114</v>
+        <v>0.4795241999124796</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>550</v>
+        <v>740</v>
       </c>
       <c r="B112" t="n">
-        <v>0.04774888088104199</v>
+        <v>0.03489785856042207</v>
       </c>
       <c r="C112" t="n">
-        <v>0.4694892467132523</v>
+        <v>0.4804654747729112</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>555</v>
+        <v>750</v>
       </c>
       <c r="B113" t="n">
-        <v>0.04744821112535511</v>
+        <v>0.03487563467260515</v>
       </c>
       <c r="C113" t="n">
-        <v>0.4697899164689392</v>
+        <v>0.4804876986607282</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>560</v>
+        <v>760</v>
       </c>
       <c r="B114" t="n">
-        <v>0.04550273502593726</v>
+        <v>0.0345972041901376</v>
       </c>
       <c r="C114" t="n">
-        <v>0.4717353925683571</v>
+        <v>0.4807661291431957</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>565</v>
+        <v>770</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0452974613563105</v>
+        <v>0.03284177834965211</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4719406662379838</v>
+        <v>0.4825215549836812</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>570</v>
+        <v>780</v>
       </c>
       <c r="B116" t="n">
-        <v>0.04416508094876007</v>
+        <v>0.03193638315929105</v>
       </c>
       <c r="C116" t="n">
-        <v>0.4730730466455343</v>
+        <v>0.4834269501740422</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>575</v>
+        <v>790</v>
       </c>
       <c r="B117" t="n">
-        <v>0.04392932654364633</v>
+        <v>0.03167482826395972</v>
       </c>
       <c r="C117" t="n">
-        <v>0.473308801050648</v>
+        <v>0.4836885050693736</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>580</v>
+        <v>800</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0431049549225119</v>
+        <v>0.03107620310215617</v>
       </c>
       <c r="C118" t="n">
-        <v>0.4741331726717825</v>
+        <v>0.4842871302311771</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>585</v>
+        <v>810</v>
       </c>
       <c r="B119" t="n">
-        <v>0.04263458797154097</v>
+        <v>0.0267475121909984</v>
       </c>
       <c r="C119" t="n">
-        <v>0.4746035396227534</v>
+        <v>0.4886158211423349</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>590</v>
+        <v>820</v>
       </c>
       <c r="B120" t="n">
-        <v>0.04291088569785768</v>
+        <v>0.02624896748635782</v>
       </c>
       <c r="C120" t="n">
-        <v>0.4743272418964367</v>
+        <v>0.4891143658469755</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>595</v>
+        <v>830</v>
       </c>
       <c r="B121" t="n">
-        <v>0.04178698650036089</v>
+        <v>0.02637685454950708</v>
       </c>
       <c r="C121" t="n">
-        <v>0.4754511410939334</v>
+        <v>0.4889864787838262</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>600</v>
+        <v>840</v>
       </c>
       <c r="B122" t="n">
-        <v>0.04164400655343066</v>
+        <v>0.02572360220354558</v>
       </c>
       <c r="C122" t="n">
-        <v>0.4755941210408637</v>
+        <v>0.4896397311297877</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>605</v>
+        <v>850</v>
       </c>
       <c r="B123" t="n">
-        <v>0.04136566796143038</v>
+        <v>0.0248630139247611</v>
       </c>
       <c r="C123" t="n">
-        <v>0.475872459632864</v>
+        <v>0.4905003194085722</v>
       </c>
       <c r="D123" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>610</v>
+        <v>860</v>
       </c>
       <c r="B124" t="n">
-        <v>0.04079584483830797</v>
+        <v>0.02363948440167661</v>
       </c>
       <c r="C124" t="n">
-        <v>0.4764422827559864</v>
+        <v>0.4917238489316567</v>
       </c>
       <c r="D124" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>615</v>
+        <v>870</v>
       </c>
       <c r="B125" t="n">
-        <v>0.04077266255871678</v>
+        <v>0.02416443620990328</v>
       </c>
       <c r="C125" t="n">
-        <v>0.4764654650355775</v>
+        <v>0.49119889712343</v>
       </c>
       <c r="D125" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>620</v>
+        <v>880</v>
       </c>
       <c r="B126" t="n">
-        <v>0.04054734362561802</v>
+        <v>0.02365182792817946</v>
       </c>
       <c r="C126" t="n">
-        <v>0.4766907839686763</v>
+        <v>0.4917115054051538</v>
       </c>
       <c r="D126" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>625</v>
+        <v>890</v>
       </c>
       <c r="B127" t="n">
-        <v>0.03864779408166851</v>
+        <v>0.0234568157060317</v>
       </c>
       <c r="C127" t="n">
-        <v>0.4785903335126258</v>
+        <v>0.4919065176273016</v>
       </c>
       <c r="D127" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>630</v>
+        <v>900</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0379752321343058</v>
+        <v>0.02330228774616476</v>
       </c>
       <c r="C128" t="n">
-        <v>0.4792628954599885</v>
+        <v>0.4920610455871685</v>
       </c>
       <c r="D128" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>635</v>
+        <v>910</v>
       </c>
       <c r="B129" t="n">
-        <v>0.03750513967444621</v>
+        <v>0.02343490231069308</v>
       </c>
       <c r="C129" t="n">
-        <v>0.4797329879198481</v>
+        <v>0.4919284310226402</v>
       </c>
       <c r="D129" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>640</v>
+        <v>920</v>
       </c>
       <c r="B130" t="n">
-        <v>0.03714375418593995</v>
+        <v>0.02334700578937295</v>
       </c>
       <c r="C130" t="n">
-        <v>0.4800943734083544</v>
+        <v>0.4920163275439604</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>645</v>
+        <v>930</v>
       </c>
       <c r="B131" t="n">
-        <v>0.03614049068363858</v>
+        <v>0.02284056882293004</v>
       </c>
       <c r="C131" t="n">
-        <v>0.4810976369106558</v>
+        <v>0.4925227645104032</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>650</v>
+        <v>940</v>
       </c>
       <c r="B132" t="n">
-        <v>0.03546704641387811</v>
+        <v>0.02320362907333225</v>
       </c>
       <c r="C132" t="n">
-        <v>0.4817710811804162</v>
+        <v>0.4921597042600011</v>
       </c>
       <c r="D132" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>655</v>
+        <v>950</v>
       </c>
       <c r="B133" t="n">
-        <v>0.03400708006430194</v>
+        <v>0.02355220214385479</v>
       </c>
       <c r="C133" t="n">
-        <v>0.4832310475299924</v>
+        <v>0.4918111311894785</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>660</v>
+        <v>960</v>
       </c>
       <c r="B134" t="n">
-        <v>0.03397917234746605</v>
+        <v>0.02302115345381516</v>
       </c>
       <c r="C134" t="n">
-        <v>0.4832589552468283</v>
+        <v>0.4923421798795181</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>665</v>
+        <v>970</v>
       </c>
       <c r="B135" t="n">
-        <v>0.03290956971789259</v>
+        <v>0.02299855400259551</v>
       </c>
       <c r="C135" t="n">
-        <v>0.4843285578764017</v>
+        <v>0.4923647793307377</v>
       </c>
       <c r="D135" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>670</v>
+        <v>980</v>
       </c>
       <c r="B136" t="n">
-        <v>0.03254826200868052</v>
+        <v>0.02284906115365767</v>
       </c>
       <c r="C136" t="n">
-        <v>0.4846898655856138</v>
+        <v>0.4925142721796756</v>
       </c>
       <c r="D136" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>675</v>
+        <v>990</v>
       </c>
       <c r="B137" t="n">
-        <v>0.03213494865938618</v>
+        <v>0.02277720455356516</v>
       </c>
       <c r="C137" t="n">
-        <v>0.4851031789349082</v>
+        <v>0.4925861287797682</v>
       </c>
       <c r="D137" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>680</v>
+        <v>1000</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0322220537780914</v>
+        <v>0.02280539680030866</v>
       </c>
       <c r="C138" t="n">
-        <v>0.4850160738162029</v>
+        <v>0.4925579365330246</v>
       </c>
       <c r="D138" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>685</v>
+        <v>1010</v>
       </c>
       <c r="B139" t="n">
-        <v>0.03160460493604242</v>
+        <v>0.02288099496261237</v>
       </c>
       <c r="C139" t="n">
-        <v>0.4856335226582519</v>
+        <v>0.4924823383707209</v>
       </c>
       <c r="D139" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>690</v>
+        <v>1020</v>
       </c>
       <c r="B140" t="n">
-        <v>0.03155104587935548</v>
+        <v>0.02223240282804794</v>
       </c>
       <c r="C140" t="n">
-        <v>0.4856870817149389</v>
+        <v>0.4931309305052853</v>
       </c>
       <c r="D140" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>695</v>
+        <v>1030</v>
       </c>
       <c r="B141" t="n">
-        <v>0.03095649374811104</v>
+        <v>0.02178689634306192</v>
       </c>
       <c r="C141" t="n">
-        <v>0.4862816338461833</v>
+        <v>0.4935764369902714</v>
       </c>
       <c r="D141" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>700</v>
+        <v>1040</v>
       </c>
       <c r="B142" t="n">
-        <v>0.03002547708571016</v>
+        <v>0.0219589787708193</v>
       </c>
       <c r="C142" t="n">
-        <v>0.4872126505085841</v>
+        <v>0.493404354562514</v>
       </c>
       <c r="D142" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>705</v>
+        <v>1050</v>
       </c>
       <c r="B143" t="n">
-        <v>0.02980632334461047</v>
+        <v>0.02201213321507192</v>
       </c>
       <c r="C143" t="n">
-        <v>0.4874318042496839</v>
+        <v>0.4933512001182614</v>
       </c>
       <c r="D143" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>710</v>
+        <v>1060</v>
       </c>
       <c r="B144" t="n">
-        <v>0.02961148138020015</v>
+        <v>0.02217472496327782</v>
       </c>
       <c r="C144" t="n">
-        <v>0.4876266462140942</v>
+        <v>0.4931886083700555</v>
       </c>
       <c r="D144" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>715</v>
+        <v>1070</v>
       </c>
       <c r="B145" t="n">
-        <v>0.02896019704978564</v>
+        <v>0.02207195698889826</v>
       </c>
       <c r="C145" t="n">
-        <v>0.4882779305445087</v>
+        <v>0.493291376344435</v>
       </c>
       <c r="D145" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>720</v>
+        <v>1080</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0287178981792146</v>
+        <v>0.0221602820307422</v>
       </c>
       <c r="C146" t="n">
-        <v>0.4885202294150797</v>
+        <v>0.4932030513025911</v>
       </c>
       <c r="D146" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>725</v>
+        <v>1090</v>
       </c>
       <c r="B147" t="n">
-        <v>0.02857958897913067</v>
+        <v>0.0219488044345609</v>
       </c>
       <c r="C147" t="n">
-        <v>0.4886585386151637</v>
+        <v>0.4934145288987724</v>
       </c>
       <c r="D147" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>730</v>
+        <v>1100</v>
       </c>
       <c r="B148" t="n">
-        <v>0.02791708175195794</v>
+        <v>0.02240282065600516</v>
       </c>
       <c r="C148" t="n">
-        <v>0.4893210458423364</v>
+        <v>0.4929605126773281</v>
       </c>
       <c r="D148" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>735</v>
+        <v>1110</v>
       </c>
       <c r="B149" t="n">
-        <v>0.02786464329834387</v>
+        <v>0.02167984076859633</v>
       </c>
       <c r="C149" t="n">
-        <v>0.4893734842959505</v>
+        <v>0.4936834925647369</v>
       </c>
       <c r="D149" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>740</v>
+        <v>1120</v>
       </c>
       <c r="B150" t="n">
-        <v>0.02724151882289251</v>
+        <v>0.02192347845340082</v>
       </c>
       <c r="C150" t="n">
-        <v>0.4899966087714018</v>
+        <v>0.4934398548799325</v>
       </c>
       <c r="D150" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>745</v>
+        <v>1130</v>
       </c>
       <c r="B151" t="n">
-        <v>0.02752331121328982</v>
+        <v>0.02167164011997934</v>
       </c>
       <c r="C151" t="n">
-        <v>0.4897148163810045</v>
+        <v>0.4936916932133539</v>
       </c>
       <c r="D151" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>750</v>
+        <v>1140</v>
       </c>
       <c r="B152" t="n">
-        <v>0.02720730008038345</v>
+        <v>0.02141096071814005</v>
       </c>
       <c r="C152" t="n">
-        <v>0.4900308275139109</v>
+        <v>0.4939523726151933</v>
       </c>
       <c r="D152" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>755</v>
+        <v>1150</v>
       </c>
       <c r="B153" t="n">
-        <v>0.02697115036101339</v>
+        <v>0.02176841122556702</v>
       </c>
       <c r="C153" t="n">
-        <v>0.4902669772332809</v>
+        <v>0.4935949221077663</v>
       </c>
       <c r="D153" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>760</v>
+        <v>1160</v>
       </c>
       <c r="B154" t="n">
-        <v>0.02699682651990176</v>
+        <v>0.02191833868683653</v>
       </c>
       <c r="C154" t="n">
-        <v>0.4902413010743926</v>
+        <v>0.4934449946464968</v>
       </c>
       <c r="D154" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>765</v>
+        <v>1170</v>
       </c>
       <c r="B155" t="n">
-        <v>0.02649297078700947</v>
+        <v>0.02156646566387551</v>
       </c>
       <c r="C155" t="n">
-        <v>0.4907451568072849</v>
+        <v>0.4937968676694578</v>
       </c>
       <c r="D155" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>770</v>
+        <v>1180</v>
       </c>
       <c r="B156" t="n">
-        <v>0.02568246774016015</v>
+        <v>0.02118194394444028</v>
       </c>
       <c r="C156" t="n">
-        <v>0.4915556598541342</v>
+        <v>0.494181389388893</v>
       </c>
       <c r="D156" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>775</v>
+        <v>1190</v>
       </c>
       <c r="B157" t="n">
-        <v>0.02518956452803295</v>
+        <v>0.02115730672892749</v>
       </c>
       <c r="C157" t="n">
-        <v>0.4920485630662614</v>
+        <v>0.4942060266044058</v>
       </c>
       <c r="D157" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>780</v>
+        <v>1200</v>
       </c>
       <c r="B158" t="n">
-        <v>0.02499267483265098</v>
+        <v>0.02110058454709362</v>
       </c>
       <c r="C158" t="n">
-        <v>0.4922454527616433</v>
+        <v>0.4942627487862397</v>
       </c>
       <c r="D158" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>785</v>
+        <v>1210</v>
       </c>
       <c r="B159" t="n">
-        <v>0.02512239208219522</v>
+        <v>0.02061040790704554</v>
       </c>
       <c r="C159" t="n">
-        <v>0.4921157355120991</v>
+        <v>0.4947529254262877</v>
       </c>
       <c r="D159" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>790</v>
+        <v>1220</v>
       </c>
       <c r="B160" t="n">
-        <v>0.02479924058365561</v>
+        <v>0.02066295036033765</v>
       </c>
       <c r="C160" t="n">
-        <v>0.4924388870106387</v>
+        <v>0.4947003829729956</v>
       </c>
       <c r="D160" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>795</v>
+        <v>1230</v>
       </c>
       <c r="B161" t="n">
-        <v>0.02441139820101437</v>
+        <v>0.02024124839442218</v>
       </c>
       <c r="C161" t="n">
-        <v>0.49282672939328</v>
+        <v>0.4951220849389111</v>
       </c>
       <c r="D161" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>800</v>
+        <v>1240</v>
       </c>
       <c r="B162" t="n">
-        <v>0.02435885594231355</v>
+        <v>0.0202342725078387</v>
       </c>
       <c r="C162" t="n">
-        <v>0.4928792716519808</v>
+        <v>0.4951290608254946</v>
       </c>
       <c r="D162" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>805</v>
+        <v>1250</v>
       </c>
       <c r="B163" t="n">
-        <v>0.02347262954018974</v>
+        <v>0.02057045557799884</v>
       </c>
       <c r="C163" t="n">
-        <v>0.4937654980541046</v>
+        <v>0.4947928777553344</v>
       </c>
       <c r="D163" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>810</v>
+        <v>1260</v>
       </c>
       <c r="B164" t="n">
-        <v>0.02114360771288833</v>
+        <v>0.01927074883981209</v>
       </c>
       <c r="C164" t="n">
-        <v>0.496094519881406</v>
+        <v>0.4960925844935212</v>
       </c>
       <c r="D164" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>815</v>
+        <v>1270</v>
       </c>
       <c r="B165" t="n">
-        <v>0.02079008279255374</v>
+        <v>0.01931355305248952</v>
       </c>
       <c r="C165" t="n">
-        <v>0.4964480448017406</v>
+        <v>0.4960497802808438</v>
       </c>
       <c r="D165" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>820</v>
+        <v>1280</v>
       </c>
       <c r="B166" t="n">
-        <v>0.02070610296494371</v>
+        <v>0.01936448273135719</v>
       </c>
       <c r="C166" t="n">
-        <v>0.4965320246293506</v>
+        <v>0.4959988506019761</v>
       </c>
       <c r="D166" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>825</v>
+        <v>1290</v>
       </c>
       <c r="B167" t="n">
-        <v>0.02079046315319054</v>
+        <v>0.01900788733139578</v>
       </c>
       <c r="C167" t="n">
-        <v>0.4964476644411038</v>
+        <v>0.4963554460019375</v>
       </c>
       <c r="D167" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>830</v>
+        <v>1300</v>
       </c>
       <c r="B168" t="n">
-        <v>0.02082940685768846</v>
+        <v>0.01870350110429162</v>
       </c>
       <c r="C168" t="n">
-        <v>0.4964087207366059</v>
+        <v>0.4966598322290416</v>
       </c>
       <c r="D168" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>835</v>
+        <v>1310</v>
       </c>
       <c r="B169" t="n">
-        <v>0.02048339025679211</v>
+        <v>0.01879655307870269</v>
       </c>
       <c r="C169" t="n">
-        <v>0.4967547373375022</v>
+        <v>0.4965667802546306</v>
       </c>
       <c r="D169" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>840</v>
+        <v>1320</v>
       </c>
       <c r="B170" t="n">
-        <v>0.02033946700680173</v>
+        <v>0.0188248986157259</v>
       </c>
       <c r="C170" t="n">
-        <v>0.4968986605874926</v>
+        <v>0.4965384347176074</v>
       </c>
       <c r="D170" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>845</v>
+        <v>1330</v>
       </c>
       <c r="B171" t="n">
-        <v>0.02017444906580361</v>
+        <v>0.01855154645317435</v>
       </c>
       <c r="C171" t="n">
-        <v>0.4970636785284907</v>
+        <v>0.4968117868801589</v>
       </c>
       <c r="D171" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>850</v>
+        <v>1340</v>
       </c>
       <c r="B172" t="n">
-        <v>0.01962064374430236</v>
+        <v>0.01882538639812413</v>
       </c>
       <c r="C172" t="n">
-        <v>0.4976174838499919</v>
+        <v>0.4965379469352091</v>
       </c>
       <c r="D172" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>855</v>
+        <v>1350</v>
       </c>
       <c r="B173" t="n">
-        <v>0.01918769642114343</v>
+        <v>0.01818498582961538</v>
       </c>
       <c r="C173" t="n">
-        <v>0.4980504311731509</v>
+        <v>0.4971783475037179</v>
       </c>
       <c r="D173" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>860</v>
+        <v>1360</v>
       </c>
       <c r="B174" t="n">
-        <v>0.01870351715019071</v>
+        <v>0.01848390063716862</v>
       </c>
       <c r="C174" t="n">
-        <v>0.4985346104441036</v>
+        <v>0.4968794326961646</v>
       </c>
       <c r="D174" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>865</v>
+        <v>1370</v>
       </c>
       <c r="B175" t="n">
-        <v>0.01879313068444138</v>
+        <v>0.01806144151756371</v>
       </c>
       <c r="C175" t="n">
-        <v>0.4984449969098529</v>
+        <v>0.4973018918157696</v>
       </c>
       <c r="D175" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>870</v>
+        <v>1380</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0191454171396687</v>
+        <v>0.0178559959228099</v>
       </c>
       <c r="C176" t="n">
-        <v>0.4980927104546256</v>
+        <v>0.4975073374105234</v>
       </c>
       <c r="D176" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>875</v>
+        <v>1390</v>
       </c>
       <c r="B177" t="n">
-        <v>0.01892289338239161</v>
+        <v>0.01839348431862241</v>
       </c>
       <c r="C177" t="n">
-        <v>0.4983152342119027</v>
+        <v>0.4969698490147109</v>
       </c>
       <c r="D177" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>880</v>
+        <v>1400</v>
       </c>
       <c r="B178" t="n">
-        <v>0.01871751823557068</v>
+        <v>0.01795657284064414</v>
       </c>
       <c r="C178" t="n">
-        <v>0.4985206093587237</v>
+        <v>0.4974067604926892</v>
       </c>
       <c r="D178" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>885</v>
+        <v>1410</v>
       </c>
       <c r="B179" t="n">
-        <v>0.01857485802503701</v>
+        <v>0.01786278412931673</v>
       </c>
       <c r="C179" t="n">
-        <v>0.4986632695692573</v>
+        <v>0.4975005492040165</v>
       </c>
       <c r="D179" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>890</v>
+        <v>1420</v>
       </c>
       <c r="B180" t="n">
-        <v>0.01850173004411988</v>
+        <v>0.01709935224554194</v>
       </c>
       <c r="C180" t="n">
-        <v>0.4987363975501745</v>
+        <v>0.4982639810877914</v>
       </c>
       <c r="D180" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>895</v>
+        <v>1430</v>
       </c>
       <c r="B181" t="n">
-        <v>0.01843257132337165</v>
+        <v>0.01766507869210508</v>
       </c>
       <c r="C181" t="n">
-        <v>0.4988055562709227</v>
+        <v>0.4976982546412282</v>
       </c>
       <c r="D181" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>900</v>
+        <v>1440</v>
       </c>
       <c r="B182" t="n">
-        <v>0.01842080067233898</v>
+        <v>0.0171419994077811</v>
       </c>
       <c r="C182" t="n">
-        <v>0.4988173269219554</v>
+        <v>0.4982213339255522</v>
       </c>
       <c r="D182" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>905</v>
+        <v>1500</v>
       </c>
       <c r="B183" t="n">
-        <v>0.01843821649511395</v>
+        <v>0.01696909605658146</v>
       </c>
       <c r="C183" t="n">
-        <v>0.4987999110991804</v>
+        <v>0.4983942372767518</v>
       </c>
       <c r="D183" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>910</v>
+        <v>1560</v>
       </c>
       <c r="B184" t="n">
-        <v>0.01860089845527176</v>
+        <v>0.01655858105431156</v>
       </c>
       <c r="C184" t="n">
-        <v>0.4986372291390226</v>
+        <v>0.4988047522790217</v>
       </c>
       <c r="D184" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>915</v>
+        <v>1620</v>
       </c>
       <c r="B185" t="n">
-        <v>0.01835250183241233</v>
+        <v>0.01606755238928753</v>
       </c>
       <c r="C185" t="n">
-        <v>0.498885625761882</v>
+        <v>0.4992957809440458</v>
       </c>
       <c r="D185" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>920</v>
+        <v>1680</v>
       </c>
       <c r="B186" t="n">
-        <v>0.01842345045325396</v>
+        <v>0.01579378779251001</v>
       </c>
       <c r="C186" t="n">
-        <v>0.4988146771410404</v>
+        <v>0.4995695455408233</v>
       </c>
       <c r="D186" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>925</v>
+        <v>1740</v>
       </c>
       <c r="B187" t="n">
-        <v>0.01839967382652313</v>
+        <v>0.01526942974087746</v>
       </c>
       <c r="C187" t="n">
-        <v>0.4988384537677712</v>
+        <v>0.5000939035924559</v>
       </c>
       <c r="D187" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>930</v>
+        <v>1800</v>
       </c>
       <c r="B188" t="n">
-        <v>0.01804084618568567</v>
+        <v>0.01505240184282039</v>
       </c>
       <c r="C188" t="n">
-        <v>0.4991972814086086</v>
+        <v>0.5003109314905129</v>
       </c>
       <c r="D188" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>935</v>
+        <v>1860</v>
       </c>
       <c r="B189" t="n">
-        <v>0.01819221689505032</v>
+        <v>0.01466025174562609</v>
       </c>
       <c r="C189" t="n">
-        <v>0.499045910699244</v>
+        <v>0.5007030815877072</v>
       </c>
       <c r="D189" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>940</v>
+        <v>1920</v>
       </c>
       <c r="B190" t="n">
-        <v>0.01830671502406743</v>
+        <v>0.01495480490440929</v>
       </c>
       <c r="C190" t="n">
-        <v>0.4989314125702269</v>
+        <v>0.500408528428924</v>
       </c>
       <c r="D190" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>945</v>
+        <v>1980</v>
       </c>
       <c r="B191" t="n">
-        <v>0.01837094222524771</v>
+        <v>0.01386143055324743</v>
       </c>
       <c r="C191" t="n">
-        <v>0.4988671853690466</v>
+        <v>0.5015019027800859</v>
       </c>
       <c r="D191" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>950</v>
+        <v>2040</v>
       </c>
       <c r="B192" t="n">
-        <v>0.01865104749170995</v>
+        <v>0.01433592653630301</v>
       </c>
       <c r="C192" t="n">
-        <v>0.4985870801025844</v>
+        <v>0.5010274067970303</v>
       </c>
       <c r="D192" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>955</v>
+        <v>2100</v>
       </c>
       <c r="B193" t="n">
-        <v>0.01810907749576277</v>
+        <v>0.01315855090572601</v>
       </c>
       <c r="C193" t="n">
-        <v>0.4991290500985315</v>
+        <v>0.5022047824276072</v>
       </c>
       <c r="D193" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>960</v>
+        <v>2160</v>
       </c>
       <c r="B194" t="n">
-        <v>0.01817892922114696</v>
+        <v>0.01291663641502786</v>
       </c>
       <c r="C194" t="n">
-        <v>0.4990591983731474</v>
+        <v>0.5024466969183055</v>
       </c>
       <c r="D194" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>965</v>
+        <v>2220</v>
       </c>
       <c r="B195" t="n">
-        <v>0.01799660826179816</v>
+        <v>0.01246869482158153</v>
       </c>
       <c r="C195" t="n">
-        <v>0.4992415193324962</v>
+        <v>0.5028946385117518</v>
       </c>
       <c r="D195" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>970</v>
+        <v>2280</v>
       </c>
       <c r="B196" t="n">
-        <v>0.01815467056329826</v>
+        <v>0.01178051292574025</v>
       </c>
       <c r="C196" t="n">
-        <v>0.499083457030996</v>
+        <v>0.5035828204075931</v>
       </c>
       <c r="D196" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>975</v>
+        <v>2340</v>
       </c>
       <c r="B197" t="n">
-        <v>0.01811442359313197</v>
+        <v>0.0116812323445672</v>
       </c>
       <c r="C197" t="n">
-        <v>0.4991237040011623</v>
+        <v>0.5036821009887661</v>
       </c>
       <c r="D197" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>980</v>
+        <v>2400</v>
       </c>
       <c r="B198" t="n">
-        <v>0.01803350340267932</v>
+        <v>0.01143370166280496</v>
       </c>
       <c r="C198" t="n">
-        <v>0.499204624191615</v>
+        <v>0.5039296316705283</v>
       </c>
       <c r="D198" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>985</v>
+        <v>2460</v>
       </c>
       <c r="B199" t="n">
-        <v>0.01803163396143299</v>
+        <v>0.01097892283907252</v>
       </c>
       <c r="C199" t="n">
-        <v>0.4992064936328613</v>
+        <v>0.5043844104942607</v>
       </c>
       <c r="D199" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>990</v>
+        <v>2520</v>
       </c>
       <c r="B200" t="n">
-        <v>0.01792024460403582</v>
+        <v>0.01081736519892513</v>
       </c>
       <c r="C200" t="n">
-        <v>0.4993178829902585</v>
+        <v>0.5045459681344081</v>
       </c>
       <c r="D200" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>995</v>
+        <v>2580</v>
       </c>
       <c r="B201" t="n">
-        <v>0.01812500611811333</v>
+        <v>0.01059550402201226</v>
       </c>
       <c r="C201" t="n">
-        <v>0.499113121476181</v>
+        <v>0.504767829311321</v>
       </c>
       <c r="D201" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1000</v>
+        <v>2640</v>
       </c>
       <c r="B202" t="n">
-        <v>0.01788756349140686</v>
+        <v>0.01031055792763964</v>
       </c>
       <c r="C202" t="n">
-        <v>0.4993505641028875</v>
+        <v>0.5050527754056936</v>
       </c>
       <c r="D202" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1005</v>
+        <v>2700</v>
       </c>
       <c r="B203" t="n">
-        <v>0.01806174702568093</v>
+        <v>0.01525266865988887</v>
       </c>
       <c r="C203" t="n">
-        <v>0.4991763805686134</v>
+        <v>0.5001106646734444</v>
       </c>
       <c r="D203" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1010</v>
+        <v>2760</v>
       </c>
       <c r="B204" t="n">
-        <v>0.01799855404852306</v>
+        <v>0.00920087428832914</v>
       </c>
       <c r="C204" t="n">
-        <v>0.4992395735457713</v>
+        <v>0.5061624590450041</v>
       </c>
       <c r="D204" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>1015</v>
+        <v>2820</v>
       </c>
       <c r="B205" t="n">
-        <v>0.01780346262889237</v>
+        <v>0.008813049035161476</v>
       </c>
       <c r="C205" t="n">
-        <v>0.499434664965402</v>
+        <v>0.5065502842981718</v>
       </c>
       <c r="D205" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>1020</v>
+        <v>2880</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0175267759398582</v>
+        <v>0.008731052301877026</v>
       </c>
       <c r="C206" t="n">
-        <v>0.4997113516544361</v>
+        <v>0.5066322810314563</v>
       </c>
       <c r="D206" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>1025</v>
-      </c>
-      <c r="B207" t="n">
-        <v>0.01768853371356516</v>
-      </c>
-      <c r="C207" t="n">
-        <v>0.4995495938807292</v>
-      </c>
-      <c r="D207" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>1030</v>
-      </c>
-      <c r="B208" t="n">
-        <v>0.01715651194744035</v>
-      </c>
-      <c r="C208" t="n">
-        <v>0.5000816156468539</v>
-      </c>
-      <c r="D208" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>1035</v>
-      </c>
-      <c r="B209" t="n">
-        <v>0.01756576085653931</v>
-      </c>
-      <c r="C209" t="n">
-        <v>0.499672366737755</v>
-      </c>
-      <c r="D209" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>1040</v>
-      </c>
-      <c r="B210" t="n">
-        <v>0.01722079656144149</v>
-      </c>
-      <c r="C210" t="n">
-        <v>0.5000173310328528</v>
-      </c>
-      <c r="D210" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>1045</v>
-      </c>
-      <c r="B211" t="n">
-        <v>0.01738419309517534</v>
-      </c>
-      <c r="C211" t="n">
-        <v>0.499853934499119</v>
-      </c>
-      <c r="D211" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>1050</v>
-      </c>
-      <c r="B212" t="n">
-        <v>0.017302624288732</v>
-      </c>
-      <c r="C212" t="n">
-        <v>0.4999355033055624</v>
-      </c>
-      <c r="D212" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>1055</v>
-      </c>
-      <c r="B213" t="n">
-        <v>0.0176243335667411</v>
-      </c>
-      <c r="C213" t="n">
-        <v>0.4996137940275532</v>
-      </c>
-      <c r="D213" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>1060</v>
-      </c>
-      <c r="B214" t="n">
-        <v>0.01742848100469165</v>
-      </c>
-      <c r="C214" t="n">
-        <v>0.4998096465896027</v>
-      </c>
-      <c r="D214" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>1065</v>
-      </c>
-      <c r="B215" t="n">
-        <v>0.01729948243721197</v>
-      </c>
-      <c r="C215" t="n">
-        <v>0.4999386451570824</v>
-      </c>
-      <c r="D215" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>1070</v>
-      </c>
-      <c r="B216" t="n">
-        <v>0.01734128222978846</v>
-      </c>
-      <c r="C216" t="n">
-        <v>0.4998968453645058</v>
-      </c>
-      <c r="D216" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>1075</v>
-      </c>
-      <c r="B217" t="n">
-        <v>0.01742272200458527</v>
-      </c>
-      <c r="C217" t="n">
-        <v>0.499815405589709</v>
-      </c>
-      <c r="D217" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>1080</v>
-      </c>
-      <c r="B218" t="n">
-        <v>0.01742663474661323</v>
-      </c>
-      <c r="C218" t="n">
-        <v>0.4998114928476811</v>
-      </c>
-      <c r="D218" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>1085</v>
-      </c>
-      <c r="B219" t="n">
-        <v>0.01747987026633371</v>
-      </c>
-      <c r="C219" t="n">
-        <v>0.4997582573279606</v>
-      </c>
-      <c r="D219" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>1090</v>
-      </c>
-      <c r="B220" t="n">
-        <v>0.01723938592404831</v>
-      </c>
-      <c r="C220" t="n">
-        <v>0.499998741670246</v>
-      </c>
-      <c r="D220" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v>1095</v>
-      </c>
-      <c r="B221" t="n">
-        <v>0.01719980230485625</v>
-      </c>
-      <c r="C221" t="n">
-        <v>0.500038325289438</v>
-      </c>
-      <c r="D221" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>1100</v>
-      </c>
-      <c r="B222" t="n">
-        <v>0.01766817963759226</v>
-      </c>
-      <c r="C222" t="n">
-        <v>0.4995699479567021</v>
-      </c>
-      <c r="D222" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>1105</v>
-      </c>
-      <c r="B223" t="n">
-        <v>0.01707613752050719</v>
-      </c>
-      <c r="C223" t="n">
-        <v>0.5001619900737871</v>
-      </c>
-      <c r="D223" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>1110</v>
-      </c>
-      <c r="B224" t="n">
-        <v>0.01705286403882638</v>
-      </c>
-      <c r="C224" t="n">
-        <v>0.500185263555468</v>
-      </c>
-      <c r="D224" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>1115</v>
-      </c>
-      <c r="B225" t="n">
-        <v>0.01724068955740409</v>
-      </c>
-      <c r="C225" t="n">
-        <v>0.4999974380368902</v>
-      </c>
-      <c r="D225" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="n">
-        <v>1120</v>
-      </c>
-      <c r="B226" t="n">
-        <v>0.01730190392021655</v>
-      </c>
-      <c r="C226" t="n">
-        <v>0.4999362236740778</v>
-      </c>
-      <c r="D226" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="n">
-        <v>1125</v>
-      </c>
-      <c r="B227" t="n">
-        <v>0.01742291262656182</v>
-      </c>
-      <c r="C227" t="n">
-        <v>0.4998152149677325</v>
-      </c>
-      <c r="D227" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
-        <v>1130</v>
-      </c>
-      <c r="B228" t="n">
-        <v>0.01710661939136342</v>
-      </c>
-      <c r="C228" t="n">
-        <v>0.500131508202931</v>
-      </c>
-      <c r="D228" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n">
-        <v>1135</v>
-      </c>
-      <c r="B229" t="n">
-        <v>0.01696461474747826</v>
-      </c>
-      <c r="C229" t="n">
-        <v>0.5002735128468161</v>
-      </c>
-      <c r="D229" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
-        <v>1140</v>
-      </c>
-      <c r="B230" t="n">
-        <v>0.0169139251974381</v>
-      </c>
-      <c r="C230" t="n">
-        <v>0.5003242023968563</v>
-      </c>
-      <c r="D230" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>1145</v>
-      </c>
-      <c r="B231" t="n">
-        <v>0.01677356641141393</v>
-      </c>
-      <c r="C231" t="n">
-        <v>0.5004645611828804</v>
-      </c>
-      <c r="D231" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n">
-        <v>1150</v>
-      </c>
-      <c r="B232" t="n">
-        <v>0.01719427416801673</v>
-      </c>
-      <c r="C232" t="n">
-        <v>0.5000438534262776</v>
-      </c>
-      <c r="D232" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="n">
-        <v>1155</v>
-      </c>
-      <c r="B233" t="n">
-        <v>0.01740098005503843</v>
-      </c>
-      <c r="C233" t="n">
-        <v>0.4998371475392559</v>
-      </c>
-      <c r="D233" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
-        <v>1160</v>
-      </c>
-      <c r="B234" t="n">
-        <v>0.01730097053368975</v>
-      </c>
-      <c r="C234" t="n">
-        <v>0.4999371570606046</v>
-      </c>
-      <c r="D234" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>1165</v>
-      </c>
-      <c r="B235" t="n">
-        <v>0.0172217538100893</v>
-      </c>
-      <c r="C235" t="n">
-        <v>0.500016373784205</v>
-      </c>
-      <c r="D235" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>1170</v>
-      </c>
-      <c r="B236" t="n">
-        <v>0.01706470238808245</v>
-      </c>
-      <c r="C236" t="n">
-        <v>0.5001734252062119</v>
-      </c>
-      <c r="D236" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>1175</v>
-      </c>
-      <c r="B237" t="n">
-        <v>0.01663237741909404</v>
-      </c>
-      <c r="C237" t="n">
-        <v>0.5006057501752003</v>
-      </c>
-      <c r="D237" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>1180</v>
-      </c>
-      <c r="B238" t="n">
-        <v>0.01668556997278502</v>
-      </c>
-      <c r="C238" t="n">
-        <v>0.5005525576215093</v>
-      </c>
-      <c r="D238" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>1185</v>
-      </c>
-      <c r="B239" t="n">
-        <v>0.01662150876581882</v>
-      </c>
-      <c r="C239" t="n">
-        <v>0.5006166188284755</v>
-      </c>
-      <c r="D239" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>1190</v>
-      </c>
-      <c r="B240" t="n">
-        <v>0.01671602379466873</v>
-      </c>
-      <c r="C240" t="n">
-        <v>0.5005221037996256</v>
-      </c>
-      <c r="D240" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>1195</v>
-      </c>
-      <c r="B241" t="n">
-        <v>0.01639087636351418</v>
-      </c>
-      <c r="C241" t="n">
-        <v>0.5008472512307801</v>
-      </c>
-      <c r="D241" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="n">
-        <v>1200</v>
-      </c>
-      <c r="B242" t="n">
-        <v>0.01668310325085152</v>
-      </c>
-      <c r="C242" t="n">
-        <v>0.5005550243434428</v>
-      </c>
-      <c r="D242" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="n">
-        <v>1205</v>
-      </c>
-      <c r="B243" t="n">
-        <v>0.01656197487743048</v>
-      </c>
-      <c r="C243" t="n">
-        <v>0.5006761527168638</v>
-      </c>
-      <c r="D243" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="n">
-        <v>1210</v>
-      </c>
-      <c r="B244" t="n">
-        <v>0.01619977874311469</v>
-      </c>
-      <c r="C244" t="n">
-        <v>0.5010383488511796</v>
-      </c>
-      <c r="D244" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="n">
-        <v>1215</v>
-      </c>
-      <c r="B245" t="n">
-        <v>0.01650541668463568</v>
-      </c>
-      <c r="C245" t="n">
-        <v>0.5007327109096587</v>
-      </c>
-      <c r="D245" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="n">
-        <v>1220</v>
-      </c>
-      <c r="B246" t="n">
-        <v>0.01627811217747138</v>
-      </c>
-      <c r="C246" t="n">
-        <v>0.500960015416823</v>
-      </c>
-      <c r="D246" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="n">
-        <v>1225</v>
-      </c>
-      <c r="B247" t="n">
-        <v>0.01615575045582555</v>
-      </c>
-      <c r="C247" t="n">
-        <v>0.5010823771384688</v>
-      </c>
-      <c r="D247" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="n">
-        <v>1230</v>
-      </c>
-      <c r="B248" t="n">
-        <v>0.01592682009689344</v>
-      </c>
-      <c r="C248" t="n">
-        <v>0.5013113074974009</v>
-      </c>
-      <c r="D248" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
-        <v>1235</v>
-      </c>
-      <c r="B249" t="n">
-        <v>0.01587400685491608</v>
-      </c>
-      <c r="C249" t="n">
-        <v>0.5013641207393782</v>
-      </c>
-      <c r="D249" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="n">
-        <v>1240</v>
-      </c>
-      <c r="B250" t="n">
-        <v>0.01597320610796896</v>
-      </c>
-      <c r="C250" t="n">
-        <v>0.5012649214863254</v>
-      </c>
-      <c r="D250" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="n">
-        <v>1245</v>
-      </c>
-      <c r="B251" t="n">
-        <v>0.01560349463622174</v>
-      </c>
-      <c r="C251" t="n">
-        <v>0.5016346329580725</v>
-      </c>
-      <c r="D251" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="n">
-        <v>1250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>0.01622001460335923</v>
-      </c>
-      <c r="C252" t="n">
-        <v>0.5010181129909351</v>
-      </c>
-      <c r="D252" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="n">
-        <v>1255</v>
-      </c>
-      <c r="B253" t="n">
-        <v>0.01537853427449847</v>
-      </c>
-      <c r="C253" t="n">
-        <v>0.5018595933197959</v>
-      </c>
-      <c r="D253" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="n">
-        <v>1260</v>
-      </c>
-      <c r="B254" t="n">
-        <v>0.01522078674871535</v>
-      </c>
-      <c r="C254" t="n">
-        <v>0.502017340845579</v>
-      </c>
-      <c r="D254" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="n">
-        <v>1265</v>
-      </c>
-      <c r="B255" t="n">
-        <v>0.01558208360007674</v>
-      </c>
-      <c r="C255" t="n">
-        <v>0.5016560439942176</v>
-      </c>
-      <c r="D255" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="n">
-        <v>1270</v>
-      </c>
-      <c r="B256" t="n">
-        <v>0.01526782450450805</v>
-      </c>
-      <c r="C256" t="n">
-        <v>0.5019703030897863</v>
-      </c>
-      <c r="D256" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="n">
-        <v>1275</v>
-      </c>
-      <c r="B257" t="n">
-        <v>0.01518118704569908</v>
-      </c>
-      <c r="C257" t="n">
-        <v>0.5020569405485953</v>
-      </c>
-      <c r="D257" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="n">
-        <v>1280</v>
-      </c>
-      <c r="B258" t="n">
-        <v>0.01528071591741855</v>
-      </c>
-      <c r="C258" t="n">
-        <v>0.5019574116768758</v>
-      </c>
-      <c r="D258" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="n">
-        <v>1285</v>
-      </c>
-      <c r="B259" t="n">
-        <v>0.01523615364361826</v>
-      </c>
-      <c r="C259" t="n">
-        <v>0.502001973950676</v>
-      </c>
-      <c r="D259" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="n">
-        <v>1290</v>
-      </c>
-      <c r="B260" t="n">
-        <v>0.01496267869320337</v>
-      </c>
-      <c r="C260" t="n">
-        <v>0.502275448901091</v>
-      </c>
-      <c r="D260" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="n">
-        <v>1295</v>
-      </c>
-      <c r="B261" t="n">
-        <v>0.01517510815896266</v>
-      </c>
-      <c r="C261" t="n">
-        <v>0.5020630194353317</v>
-      </c>
-      <c r="D261" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="n">
-        <v>1300</v>
-      </c>
-      <c r="B262" t="n">
-        <v>0.01478738080579015</v>
-      </c>
-      <c r="C262" t="n">
-        <v>0.5024507467885042</v>
-      </c>
-      <c r="D262" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="n">
-        <v>1305</v>
-      </c>
-      <c r="B263" t="n">
-        <v>0.01469646406022195</v>
-      </c>
-      <c r="C263" t="n">
-        <v>0.5025416635340724</v>
-      </c>
-      <c r="D263" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="n">
-        <v>1310</v>
-      </c>
-      <c r="B264" t="n">
-        <v>0.01483865457252497</v>
-      </c>
-      <c r="C264" t="n">
-        <v>0.5023994730217693</v>
-      </c>
-      <c r="D264" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="n">
-        <v>1315</v>
-      </c>
-      <c r="B265" t="n">
-        <v>0.01492181067884212</v>
-      </c>
-      <c r="C265" t="n">
-        <v>0.5023163169154522</v>
-      </c>
-      <c r="D265" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="n">
-        <v>1320</v>
-      </c>
-      <c r="B266" t="n">
-        <v>0.01492046111545637</v>
-      </c>
-      <c r="C266" t="n">
-        <v>0.5023176664788379</v>
-      </c>
-      <c r="D266" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="n">
-        <v>1325</v>
-      </c>
-      <c r="B267" t="n">
-        <v>0.01440190463364148</v>
-      </c>
-      <c r="C267" t="n">
-        <v>0.5028362229606529</v>
-      </c>
-      <c r="D267" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="n">
-        <v>1330</v>
-      </c>
-      <c r="B268" t="n">
-        <v>0.01464685189082149</v>
-      </c>
-      <c r="C268" t="n">
-        <v>0.5025912757034728</v>
-      </c>
-      <c r="D268" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="n">
-        <v>1335</v>
-      </c>
-      <c r="B269" t="n">
-        <v>0.01485354608301786</v>
-      </c>
-      <c r="C269" t="n">
-        <v>0.5023845815112765</v>
-      </c>
-      <c r="D269" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="n">
-        <v>1340</v>
-      </c>
-      <c r="B270" t="n">
-        <v>0.01484789795966306</v>
-      </c>
-      <c r="C270" t="n">
-        <v>0.5023902296346313</v>
-      </c>
-      <c r="D270" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="n">
-        <v>1345</v>
-      </c>
-      <c r="B271" t="n">
-        <v>0.01456859183004638</v>
-      </c>
-      <c r="C271" t="n">
-        <v>0.502669535764248</v>
-      </c>
-      <c r="D271" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="n">
-        <v>1350</v>
-      </c>
-      <c r="B272" t="n">
-        <v>0.01443368197935925</v>
-      </c>
-      <c r="C272" t="n">
-        <v>0.5028044456149351</v>
-      </c>
-      <c r="D272" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="n">
-        <v>1355</v>
-      </c>
-      <c r="B273" t="n">
-        <v>0.01461322110213402</v>
-      </c>
-      <c r="C273" t="n">
-        <v>0.5026249064921603</v>
-      </c>
-      <c r="D273" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="n">
-        <v>1360</v>
-      </c>
-      <c r="B274" t="n">
-        <v>0.01459626342258247</v>
-      </c>
-      <c r="C274" t="n">
-        <v>0.5026418641717119</v>
-      </c>
-      <c r="D274" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="n">
-        <v>1365</v>
-      </c>
-      <c r="B275" t="n">
-        <v>0.01433531000971083</v>
-      </c>
-      <c r="C275" t="n">
-        <v>0.5029028175845836</v>
-      </c>
-      <c r="D275" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="n">
-        <v>1370</v>
-      </c>
-      <c r="B276" t="n">
-        <v>0.01430744230174374</v>
-      </c>
-      <c r="C276" t="n">
-        <v>0.5029306852925506</v>
-      </c>
-      <c r="D276" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="n">
-        <v>1375</v>
-      </c>
-      <c r="B277" t="n">
-        <v>0.01434427509452119</v>
-      </c>
-      <c r="C277" t="n">
-        <v>0.5028938524997731</v>
-      </c>
-      <c r="D277" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="n">
-        <v>1380</v>
-      </c>
-      <c r="B278" t="n">
-        <v>0.01414535617364687</v>
-      </c>
-      <c r="C278" t="n">
-        <v>0.5030927714206475</v>
-      </c>
-      <c r="D278" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="n">
-        <v>1385</v>
-      </c>
-      <c r="B279" t="n">
-        <v>0.01417972121717753</v>
-      </c>
-      <c r="C279" t="n">
-        <v>0.5030584063771169</v>
-      </c>
-      <c r="D279" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="n">
-        <v>1390</v>
-      </c>
-      <c r="B280" t="n">
-        <v>0.01454762550023808</v>
-      </c>
-      <c r="C280" t="n">
-        <v>0.5026905020940563</v>
-      </c>
-      <c r="D280" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="n">
-        <v>1395</v>
-      </c>
-      <c r="B281" t="n">
-        <v>0.01431895165084535</v>
-      </c>
-      <c r="C281" t="n">
-        <v>0.5029191759434489</v>
-      </c>
-      <c r="D281" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="n">
-        <v>1400</v>
-      </c>
-      <c r="B282" t="n">
-        <v>0.01412956728082388</v>
-      </c>
-      <c r="C282" t="n">
-        <v>0.5031085603134704</v>
-      </c>
-      <c r="D282" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="n">
-        <v>1405</v>
-      </c>
-      <c r="B283" t="n">
-        <v>0.01410564422667982</v>
-      </c>
-      <c r="C283" t="n">
-        <v>0.5031324833676145</v>
-      </c>
-      <c r="D283" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="n">
-        <v>1410</v>
-      </c>
-      <c r="B284" t="n">
-        <v>0.01400424499888046</v>
-      </c>
-      <c r="C284" t="n">
-        <v>0.5032338825954139</v>
-      </c>
-      <c r="D284" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="n">
-        <v>1415</v>
-      </c>
-      <c r="B285" t="n">
-        <v>0.01412877153409784</v>
-      </c>
-      <c r="C285" t="n">
-        <v>0.5031093560601965</v>
-      </c>
-      <c r="D285" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="n">
-        <v>1420</v>
-      </c>
-      <c r="B286" t="n">
-        <v>0.01377501889821215</v>
-      </c>
-      <c r="C286" t="n">
-        <v>0.5034631086960821</v>
-      </c>
-      <c r="D286" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="n">
-        <v>1425</v>
-      </c>
-      <c r="B287" t="n">
-        <v>0.0140383836528645</v>
-      </c>
-      <c r="C287" t="n">
-        <v>0.5031997439414299</v>
-      </c>
-      <c r="D287" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="n">
-        <v>1430</v>
-      </c>
-      <c r="B288" t="n">
-        <v>0.01390386122816983</v>
-      </c>
-      <c r="C288" t="n">
-        <v>0.5033342663661245</v>
-      </c>
-      <c r="D288" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="n">
-        <v>1435</v>
-      </c>
-      <c r="B289" t="n">
-        <v>0.01341783802796081</v>
-      </c>
-      <c r="C289" t="n">
-        <v>0.5038202895663335</v>
-      </c>
-      <c r="D289" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="n">
-        <v>1440</v>
-      </c>
-      <c r="B290" t="n">
-        <v>0.01340468051057425</v>
-      </c>
-      <c r="C290" t="n">
-        <v>0.50383344708372</v>
-      </c>
-      <c r="D290" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
   </sheetData>
